--- a/SchedulingData/dynamic13/pso/scheduling2_18.xlsx
+++ b/SchedulingData/dynamic13/pso/scheduling2_18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,116 +462,116 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>251.8</v>
+        <v>177.22</v>
       </c>
       <c r="D2" t="n">
-        <v>287.1</v>
+        <v>239.3</v>
       </c>
       <c r="E2" t="n">
-        <v>11.12</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>210.96</v>
+        <v>248.94</v>
       </c>
       <c r="D3" t="n">
-        <v>254.76</v>
+        <v>314.4</v>
       </c>
       <c r="E3" t="n">
-        <v>15.504</v>
+        <v>9.359999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>249.76</v>
+        <v>239.3</v>
       </c>
       <c r="D4" t="n">
-        <v>284.92</v>
+        <v>286.4</v>
       </c>
       <c r="E4" t="n">
-        <v>14.148</v>
+        <v>12.52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>231.42</v>
+        <v>206.34</v>
       </c>
       <c r="D5" t="n">
-        <v>280.08</v>
+        <v>265.42</v>
       </c>
       <c r="E5" t="n">
-        <v>12.152</v>
+        <v>13.628</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>284.92</v>
+        <v>210.64</v>
       </c>
       <c r="D6" t="n">
-        <v>352.22</v>
+        <v>273.54</v>
       </c>
       <c r="E6" t="n">
-        <v>11.508</v>
+        <v>11.316</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>224.38</v>
+        <v>286.4</v>
       </c>
       <c r="D7" t="n">
-        <v>293.78</v>
+        <v>332.32</v>
       </c>
       <c r="E7" t="n">
-        <v>12.252</v>
+        <v>8.568</v>
       </c>
     </row>
     <row r="8">
@@ -580,261 +580,261 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>287.1</v>
+        <v>210.84</v>
       </c>
       <c r="D8" t="n">
-        <v>349.8</v>
+        <v>256.16</v>
       </c>
       <c r="E8" t="n">
-        <v>7.48</v>
+        <v>15.044</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>240.94</v>
+        <v>314.4</v>
       </c>
       <c r="D9" t="n">
-        <v>328.74</v>
+        <v>373.46</v>
       </c>
       <c r="E9" t="n">
-        <v>11.776</v>
+        <v>5.564</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>293.78</v>
+        <v>273.54</v>
       </c>
       <c r="D10" t="n">
-        <v>341.38</v>
+        <v>332.76</v>
       </c>
       <c r="E10" t="n">
-        <v>9.132</v>
+        <v>8.984</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>341.38</v>
+        <v>373.46</v>
       </c>
       <c r="D11" t="n">
-        <v>401</v>
+        <v>428.52</v>
       </c>
       <c r="E11" t="n">
-        <v>6.8</v>
+        <v>3.188</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>401</v>
+        <v>256.16</v>
       </c>
       <c r="D12" t="n">
-        <v>453.1</v>
+        <v>310.74</v>
       </c>
       <c r="E12" t="n">
-        <v>3.72</v>
+        <v>11.716</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>280.08</v>
+        <v>332.76</v>
       </c>
       <c r="D13" t="n">
-        <v>337.08</v>
+        <v>386.32</v>
       </c>
       <c r="E13" t="n">
-        <v>8.071999999999999</v>
+        <v>6.248</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>352.22</v>
+        <v>231.34</v>
       </c>
       <c r="D14" t="n">
-        <v>398.2</v>
+        <v>288.74</v>
       </c>
       <c r="E14" t="n">
-        <v>8.539999999999999</v>
+        <v>12.756</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>453.1</v>
+        <v>310.74</v>
       </c>
       <c r="D15" t="n">
-        <v>507.28</v>
+        <v>348.34</v>
       </c>
       <c r="E15" t="n">
-        <v>0.912</v>
+        <v>8.596</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>507.28</v>
+        <v>386.32</v>
       </c>
       <c r="D16" t="n">
-        <v>577.46</v>
+        <v>416.04</v>
       </c>
       <c r="E16" t="n">
-        <v>30</v>
+        <v>3.916</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>398.2</v>
+        <v>265.42</v>
       </c>
       <c r="D17" t="n">
-        <v>450.52</v>
+        <v>314.12</v>
       </c>
       <c r="E17" t="n">
-        <v>5.948</v>
+        <v>9.888</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>337.08</v>
+        <v>288.74</v>
       </c>
       <c r="D18" t="n">
-        <v>393.24</v>
+        <v>353.9</v>
       </c>
       <c r="E18" t="n">
-        <v>5.576</v>
+        <v>9.34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>349.8</v>
+        <v>353.9</v>
       </c>
       <c r="D19" t="n">
-        <v>424.38</v>
+        <v>401.6</v>
       </c>
       <c r="E19" t="n">
-        <v>4.152</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>424.38</v>
+        <v>416.04</v>
       </c>
       <c r="D20" t="n">
-        <v>498.54</v>
+        <v>486.92</v>
       </c>
       <c r="E20" t="n">
-        <v>0.356</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>498.54</v>
+        <v>486.92</v>
       </c>
       <c r="D21" t="n">
-        <v>599.13</v>
+        <v>566.8200000000001</v>
       </c>
       <c r="E21" t="n">
         <v>30</v>
@@ -846,131 +846,131 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>450.52</v>
+        <v>428.52</v>
       </c>
       <c r="D22" t="n">
-        <v>510.52</v>
+        <v>480.82</v>
       </c>
       <c r="E22" t="n">
-        <v>3.088</v>
+        <v>0.068</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>254.76</v>
+        <v>480.82</v>
       </c>
       <c r="D23" t="n">
-        <v>297.96</v>
+        <v>572.38</v>
       </c>
       <c r="E23" t="n">
-        <v>12.324</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>577.46</v>
+        <v>314.12</v>
       </c>
       <c r="D24" t="n">
-        <v>637.0599999999999</v>
+        <v>368.6</v>
       </c>
       <c r="E24" t="n">
-        <v>26.7</v>
+        <v>7.08</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>328.74</v>
+        <v>348.34</v>
       </c>
       <c r="D25" t="n">
-        <v>385.94</v>
+        <v>416.04</v>
       </c>
       <c r="E25" t="n">
-        <v>8.656000000000001</v>
+        <v>5.416</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>510.52</v>
+        <v>368.6</v>
       </c>
       <c r="D26" t="n">
-        <v>562.22</v>
+        <v>413.92</v>
       </c>
       <c r="E26" t="n">
-        <v>1.008</v>
+        <v>4.168</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>562.22</v>
+        <v>332.32</v>
       </c>
       <c r="D27" t="n">
-        <v>671.5</v>
+        <v>403.28</v>
       </c>
       <c r="E27" t="n">
-        <v>30</v>
+        <v>4.592</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>385.94</v>
+        <v>572.38</v>
       </c>
       <c r="D28" t="n">
-        <v>435.22</v>
+        <v>644.48</v>
       </c>
       <c r="E28" t="n">
-        <v>5.848</v>
+        <v>27.92</v>
       </c>
     </row>
     <row r="29">
@@ -979,55 +979,55 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>637.0599999999999</v>
+        <v>401.6</v>
       </c>
       <c r="D29" t="n">
-        <v>688.9400000000001</v>
+        <v>481.26</v>
       </c>
       <c r="E29" t="n">
-        <v>23.632</v>
+        <v>3.324</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>599.13</v>
+        <v>481.26</v>
       </c>
       <c r="D30" t="n">
-        <v>654.85</v>
+        <v>530.64</v>
       </c>
       <c r="E30" t="n">
-        <v>27.088</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>393.24</v>
+        <v>530.64</v>
       </c>
       <c r="D31" t="n">
-        <v>461.02</v>
+        <v>596.61</v>
       </c>
       <c r="E31" t="n">
-        <v>1.928</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
@@ -1036,36 +1036,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>461.02</v>
+        <v>403.28</v>
       </c>
       <c r="D32" t="n">
-        <v>548.86</v>
+        <v>486.1</v>
       </c>
       <c r="E32" t="n">
-        <v>30</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>671.5</v>
+        <v>486.1</v>
       </c>
       <c r="D33" t="n">
-        <v>711.62</v>
+        <v>570.2</v>
       </c>
       <c r="E33" t="n">
-        <v>27.668</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
@@ -1074,112 +1074,112 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>688.9400000000001</v>
+        <v>596.61</v>
       </c>
       <c r="D34" t="n">
-        <v>744.46</v>
+        <v>649.11</v>
       </c>
       <c r="E34" t="n">
-        <v>20.72</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>548.86</v>
+        <v>416.04</v>
       </c>
       <c r="D35" t="n">
-        <v>582.36</v>
+        <v>467</v>
       </c>
       <c r="E35" t="n">
-        <v>27.84</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>654.85</v>
+        <v>644.48</v>
       </c>
       <c r="D36" t="n">
-        <v>708.9299999999999</v>
+        <v>703.98</v>
       </c>
       <c r="E36" t="n">
-        <v>24.28</v>
+        <v>25.06</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>708.9299999999999</v>
+        <v>566.8200000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>749.09</v>
+        <v>626.42</v>
       </c>
       <c r="E37" t="n">
-        <v>21.904</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>435.22</v>
+        <v>570.2</v>
       </c>
       <c r="D38" t="n">
-        <v>489.48</v>
+        <v>640.8</v>
       </c>
       <c r="E38" t="n">
-        <v>2.052</v>
+        <v>27.58</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>582.36</v>
+        <v>413.92</v>
       </c>
       <c r="D39" t="n">
-        <v>652.46</v>
+        <v>468.28</v>
       </c>
       <c r="E39" t="n">
-        <v>25.42</v>
+        <v>0.372</v>
       </c>
     </row>
     <row r="40">
@@ -1188,14 +1188,14 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>489.48</v>
+        <v>468.28</v>
       </c>
       <c r="D40" t="n">
-        <v>562.1799999999999</v>
+        <v>544.34</v>
       </c>
       <c r="E40" t="n">
         <v>30</v>
@@ -1203,40 +1203,59 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>562.1799999999999</v>
+        <v>467</v>
       </c>
       <c r="D41" t="n">
-        <v>602.84</v>
+        <v>524.12</v>
       </c>
       <c r="E41" t="n">
-        <v>27.624</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>297.96</v>
+        <v>524.12</v>
       </c>
       <c r="D42" t="n">
-        <v>367.46</v>
+        <v>605.26</v>
       </c>
       <c r="E42" t="n">
-        <v>8.004</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>pond64</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>605.26</v>
+      </c>
+      <c r="D43" t="n">
+        <v>646.02</v>
+      </c>
+      <c r="E43" t="n">
+        <v>27.624</v>
       </c>
     </row>
   </sheetData>
